--- a/output/ATOMUSDT_1_2020_12_2025_trades.xlsx
+++ b/output/ATOMUSDT_1_2020_12_2025_trades.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,34 +552,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>356.3791874554526</v>
+        <v>481.6955684007707</v>
       </c>
       <c r="D2" t="n">
-        <v>205</v>
+        <v>641</v>
       </c>
       <c r="E2" t="n">
-        <v>2.806</v>
+        <v>2.076</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>213</v>
+        <v>649</v>
       </c>
       <c r="H2" t="n">
-        <v>2.772</v>
+        <v>1.954</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.11689237348548</v>
+        <v>58.7668593448941</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01211689237348548</v>
+        <v>0.0587668593448941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -601,62 +601,62 @@
         <v>2020</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T2" s="2" t="n">
-        <v>43960.54166666666</v>
+        <v>43917.70833333334</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>43960.875</v>
+        <v>43918.04166666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>383.6439252918503</v>
+        <v>356.3791874554526</v>
       </c>
       <c r="D3" t="n">
-        <v>626</v>
+        <v>205</v>
       </c>
       <c r="E3" t="n">
-        <v>2.575</v>
+        <v>2.806</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>629</v>
+        <v>213</v>
       </c>
       <c r="H3" t="n">
-        <v>2.609</v>
+        <v>2.772</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-13.04389345992286</v>
+        <v>-12.11689237348548</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.01320388349514558</v>
+        <v>-0.01211689237348548</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -676,58 +676,58 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T3" s="2" t="n">
-        <v>43978.08333333334</v>
+        <v>43960.54166666666</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>43978.20833333334</v>
+        <v>43960.875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>369.6773660093256</v>
+        <v>383.6439252918503</v>
       </c>
       <c r="D4" t="n">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E4" t="n">
-        <v>2.637</v>
+        <v>2.575</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="H4" t="n">
-        <v>2.59</v>
+        <v>2.609</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-17.37483620243836</v>
+        <v>-13.04389345992286</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01782328403488819</v>
+        <v>-0.01320388349514558</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -747,58 +747,58 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T4" s="2" t="n">
-        <v>43978.29166666666</v>
+        <v>43978.08333333334</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>43978.875</v>
+        <v>43978.20833333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>327.2251308900524</v>
+        <v>369.6773660093256</v>
       </c>
       <c r="D5" t="n">
-        <v>227</v>
+        <v>631</v>
       </c>
       <c r="E5" t="n">
-        <v>3.056</v>
+        <v>2.637</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>237</v>
+        <v>645</v>
       </c>
       <c r="H5" t="n">
-        <v>3.112</v>
+        <v>2.59</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-18.32460732984293</v>
+        <v>-17.37483620243836</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01832460732984293</v>
+        <v>-0.01782328403488819</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -814,53 +814,53 @@
         <v>2020</v>
       </c>
       <c r="R5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T5" s="2" t="n">
-        <v>43992.45833333334</v>
+        <v>43978.29166666666</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>43992.875</v>
+        <v>43978.875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>324.9504775472218</v>
+        <v>327.2251308900524</v>
       </c>
       <c r="D6" t="n">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="E6" t="n">
-        <v>3.021</v>
+        <v>3.056</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="H6" t="n">
-        <v>2.737</v>
+        <v>3.112</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>92.28593562341098</v>
+        <v>-18.32460732984293</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09400860642171464</v>
+        <v>-0.01832460732984293</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -893,54 +893,54 @@
         </is>
       </c>
       <c r="T6" s="2" t="n">
-        <v>43993.5</v>
+        <v>43992.45833333334</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>43993.66666666666</v>
+        <v>43992.875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>247.2799208704253</v>
+        <v>324.9504775472218</v>
       </c>
       <c r="D7" t="n">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="E7" t="n">
-        <v>4.044</v>
+        <v>3.021</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>392</v>
+        <v>256</v>
       </c>
       <c r="H7" t="n">
-        <v>3.966</v>
+        <v>2.737</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-19.287833827893</v>
+        <v>92.28593562341098</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01928783382789299</v>
+        <v>0.09400860642171464</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -956,62 +956,62 @@
         <v>2020</v>
       </c>
       <c r="R7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T7" s="2" t="n">
-        <v>44029.08333333334</v>
+        <v>43993.5</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>44029.33333333334</v>
+        <v>43993.66666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>242.5104268477021</v>
+        <v>255.885363357216</v>
       </c>
       <c r="D8" t="n">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="E8" t="n">
-        <v>4.044</v>
+        <v>3.908</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="H8" t="n">
-        <v>4.312</v>
+        <v>4.078</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>64.99279439518443</v>
+        <v>-43.50051177072669</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06627101879327428</v>
+        <v>-0.04350051177072669</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1031,49 +1031,49 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T8" s="2" t="n">
-        <v>44029.41666666666</v>
+        <v>44028.33333333334</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>44030.25</v>
+        <v>44028.95833333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>163.7733377006223</v>
+        <v>236.523117761937</v>
       </c>
       <c r="D9" t="n">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="E9" t="n">
-        <v>6.106</v>
+        <v>4.044</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>3.966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>80.9040288241074</v>
+        <v>-18.44880318543096</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0809040288241074</v>
+        <v>-0.01928783382789304</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>2020</v>
       </c>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1106,45 +1106,45 @@
         </is>
       </c>
       <c r="T9" s="2" t="n">
-        <v>44063.41666666666</v>
+        <v>44029.08333333334</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>44064</v>
+        <v>44029.33333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>51.30573085013596</v>
+        <v>231.9610991700896</v>
       </c>
       <c r="D10" t="n">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="E10" t="n">
-        <v>19.491</v>
+        <v>4.044</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>261</v>
+        <v>414</v>
       </c>
       <c r="H10" t="n">
-        <v>19.205</v>
+        <v>4.312</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.67343902313905</v>
+        <v>62.16557457758415</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01467343902313905</v>
+        <v>0.06627101879327413</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1177,45 +1177,45 @@
         </is>
       </c>
       <c r="T10" s="2" t="n">
-        <v>44266.66666666666</v>
+        <v>44029.41666666666</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>44266.875</v>
+        <v>44030.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>50.57365708447677</v>
+        <v>163.7733377006223</v>
       </c>
       <c r="D11" t="n">
-        <v>273</v>
+        <v>466</v>
       </c>
       <c r="E11" t="n">
-        <v>19.483</v>
+        <v>6.106</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="H11" t="n">
-        <v>19.089</v>
+        <v>6.6</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-19.92602089128388</v>
+        <v>80.9040288241074</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.02022275830210957</v>
+        <v>0.0809040288241074</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="T11" s="2" t="n">
-        <v>44267.375</v>
+        <v>44063.41666666666</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>44267.45833333334</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="12">
@@ -1262,34 +1262,34 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>30.42010160313936</v>
+        <v>50.53312446308555</v>
       </c>
       <c r="D12" t="n">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>32.873</v>
+        <v>19.789</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="H12" t="n">
-        <v>31.46</v>
+        <v>20.933</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>42.98360356523574</v>
+        <v>57.80989438576989</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04298360356523574</v>
+        <v>0.0578098943857699</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1311,18 +1311,18 @@
         <v>2021</v>
       </c>
       <c r="R12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T12" s="2" t="n">
-        <v>44486.625</v>
+        <v>44264.33333333334</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>44486.83333333334</v>
+        <v>44264.79166666666</v>
       </c>
     </row>
     <row r="13">
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>30.57437351054541</v>
+        <v>53.61157034036642</v>
       </c>
       <c r="D13" t="n">
-        <v>467</v>
+        <v>253</v>
       </c>
       <c r="E13" t="n">
-        <v>34.113</v>
+        <v>19.731</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>472</v>
+        <v>261</v>
       </c>
       <c r="H13" t="n">
-        <v>36.34</v>
+        <v>19.205</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.08912980798482</v>
+        <v>-28.19968599903291</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06528302992993891</v>
+        <v>-0.02665855759971634</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>2021</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1390,45 +1390,45 @@
         </is>
       </c>
       <c r="T13" s="2" t="n">
-        <v>44489.45833333334</v>
+        <v>44266.54166666666</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>44489.66666666666</v>
+        <v>44266.875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>45.46901286773065</v>
+        <v>52.84659489743556</v>
       </c>
       <c r="D14" t="n">
-        <v>483</v>
+        <v>273</v>
       </c>
       <c r="E14" t="n">
-        <v>21.993</v>
+        <v>19.483</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>499</v>
+        <v>275</v>
       </c>
       <c r="H14" t="n">
-        <v>23.208</v>
+        <v>19.089</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.24485063429267</v>
+        <v>-20.82155838958965</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05524485063429267</v>
+        <v>-0.02022275830210957</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>2021</v>
       </c>
       <c r="R14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="T14" s="2" t="n">
-        <v>44551.125</v>
+        <v>44267.375</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>44551.79166666666</v>
+        <v>44267.45833333334</v>
       </c>
     </row>
     <row r="15">
@@ -1475,34 +1475,34 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>35.09880313081324</v>
+        <v>30.42010160313936</v>
       </c>
       <c r="D15" t="n">
-        <v>557</v>
+        <v>399</v>
       </c>
       <c r="E15" t="n">
-        <v>28.491</v>
+        <v>32.873</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>570</v>
+        <v>404</v>
       </c>
       <c r="H15" t="n">
-        <v>29.061</v>
+        <v>31.46</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.00631778456352</v>
+        <v>42.98360356523574</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02000631778456352</v>
+        <v>0.04298360356523574</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1521,56 +1521,56 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T15" s="2" t="n">
-        <v>44644.20833333334</v>
+        <v>44486.625</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>44644.75</v>
+        <v>44486.83333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>88.54258898530193</v>
+        <v>30.57437351054541</v>
       </c>
       <c r="D16" t="n">
-        <v>525</v>
+        <v>467</v>
       </c>
       <c r="E16" t="n">
-        <v>11.294</v>
+        <v>34.113</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>537</v>
+        <v>472</v>
       </c>
       <c r="H16" t="n">
-        <v>12.023</v>
+        <v>36.34</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.54754737028509</v>
+        <v>68.08912980798482</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06454754737028508</v>
+        <v>0.06528302992993891</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="T16" s="2" t="n">
-        <v>44703.875</v>
+        <v>44489.45833333334</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>44704.375</v>
+        <v>44489.66666666666</v>
       </c>
     </row>
     <row r="17">
@@ -1617,31 +1617,31 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>85.2151682999574</v>
+        <v>45.46901286773065</v>
       </c>
       <c r="D17" t="n">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="E17" t="n">
-        <v>11.735</v>
+        <v>21.993</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="H17" t="n">
-        <v>11.434</v>
+        <v>23.208</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-25.64976565828715</v>
+        <v>55.24485063429267</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02564976565828715</v>
+        <v>0.05524485063429267</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="T17" s="2" t="n">
-        <v>44791.70833333334</v>
+        <v>44551.125</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>44791.95833333334</v>
+        <v>44551.79166666666</v>
       </c>
     </row>
     <row r="18">
@@ -1688,31 +1688,31 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>68.97027381198703</v>
+        <v>35.09880313081324</v>
       </c>
       <c r="D18" t="n">
-        <v>630</v>
+        <v>557</v>
       </c>
       <c r="E18" t="n">
-        <v>14.499</v>
+        <v>28.491</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>639</v>
+        <v>570</v>
       </c>
       <c r="H18" t="n">
-        <v>13.894</v>
+        <v>29.061</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-41.72701565625221</v>
+        <v>20.00631778456352</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0417270156562522</v>
+        <v>0.02000631778456352</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>2022</v>
       </c>
       <c r="R18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="T18" s="2" t="n">
-        <v>44831.25</v>
+        <v>44644.20833333334</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>44831.625</v>
+        <v>44644.75</v>
       </c>
     </row>
     <row r="19">
@@ -1759,31 +1759,31 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>111.8443127166983</v>
+        <v>88.22232024702249</v>
       </c>
       <c r="D19" t="n">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="E19" t="n">
-        <v>8.941000000000001</v>
+        <v>11.335</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>623</v>
+        <v>537</v>
       </c>
       <c r="H19" t="n">
-        <v>9.178000000000001</v>
+        <v>12.023</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>26.50710211385751</v>
+        <v>60.69695632995149</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02650710211385751</v>
+        <v>0.06069695632995149</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>2022</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="T19" s="2" t="n">
-        <v>44919.29166666666</v>
+        <v>44703.75</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>44921.95833333334</v>
+        <v>44704.375</v>
       </c>
     </row>
     <row r="20">
@@ -1830,31 +1830,31 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>91.04151493080845</v>
+        <v>85.2151682999574</v>
       </c>
       <c r="D20" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E20" t="n">
-        <v>10.984</v>
+        <v>11.735</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="H20" t="n">
-        <v>10.903</v>
+        <v>11.434</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-7.374362709395427</v>
+        <v>-25.64976565828715</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.007374362709395428</v>
+        <v>-0.02564976565828715</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="T20" s="2" t="n">
-        <v>45064.45833333334</v>
+        <v>44791.70833333334</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>45064.5</v>
+        <v>44791.95833333334</v>
       </c>
     </row>
     <row r="21">
@@ -1901,31 +1901,31 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>91.46094511108491</v>
+        <v>87.16677709265636</v>
       </c>
       <c r="D21" t="n">
-        <v>423</v>
+        <v>712</v>
       </c>
       <c r="E21" t="n">
-        <v>10.853</v>
+        <v>11.178</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>426</v>
+        <v>715</v>
       </c>
       <c r="H21" t="n">
-        <v>10.549</v>
+        <v>11.694</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>27.80412731376975</v>
+        <v>-44.97805697981073</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02801068828895231</v>
+        <v>-0.04616210413311867</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -1958,10 +1958,10 @@
         </is>
       </c>
       <c r="T21" s="2" t="n">
-        <v>45064.625</v>
+        <v>44803.66666666666</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>45064.75</v>
+        <v>44803.79166666666</v>
       </c>
     </row>
     <row r="22">
@@ -1972,31 +1972,31 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>105.9322033898305</v>
+        <v>68.97027381198703</v>
       </c>
       <c r="D22" t="n">
-        <v>464</v>
+        <v>630</v>
       </c>
       <c r="E22" t="n">
-        <v>9.44</v>
+        <v>14.499</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>470</v>
+        <v>639</v>
       </c>
       <c r="H22" t="n">
-        <v>9.265000000000001</v>
+        <v>13.894</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-18.5381355932202</v>
+        <v>-41.72701565625221</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0185381355932202</v>
+        <v>-0.0417270156562522</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2018,10 +2018,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2029,45 +2029,45 @@
         </is>
       </c>
       <c r="T22" s="2" t="n">
-        <v>45127.33333333334</v>
+        <v>44831.25</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>45127.58333333334</v>
+        <v>44831.625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>104.0014691540511</v>
+        <v>111.8443127166983</v>
       </c>
       <c r="D23" t="n">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="E23" t="n">
-        <v>9.436999999999999</v>
+        <v>8.941000000000001</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>526</v>
+        <v>623</v>
       </c>
       <c r="H23" t="n">
-        <v>9.323</v>
+        <v>9.178000000000001</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-11.85616748356165</v>
+        <v>26.50710211385751</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.01208011020451397</v>
+        <v>0.02650710211385751</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2100,54 +2100,54 @@
         </is>
       </c>
       <c r="T23" s="2" t="n">
-        <v>45128.04166666666</v>
+        <v>44919.29166666666</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>45129.91666666666</v>
+        <v>44921.95833333334</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>105.0607538111624</v>
+        <v>91.04151493080845</v>
       </c>
       <c r="D24" t="n">
-        <v>549</v>
+        <v>419</v>
       </c>
       <c r="E24" t="n">
-        <v>9.228999999999999</v>
+        <v>10.984</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>555</v>
+        <v>420</v>
       </c>
       <c r="H24" t="n">
-        <v>9.141</v>
+        <v>10.903</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.245346335382237</v>
+        <v>-7.374362709395427</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009535160905840227</v>
+        <v>-0.007374362709395428</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2163,53 +2163,53 @@
         <v>2023</v>
       </c>
       <c r="R24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T24" s="2" t="n">
-        <v>45130.875</v>
+        <v>45064.45833333334</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>45131.125</v>
+        <v>45064.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>99.00990099009901</v>
+        <v>91.46094511108491</v>
       </c>
       <c r="D25" t="n">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="E25" t="n">
-        <v>10.1</v>
+        <v>10.853</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H25" t="n">
-        <v>10.215</v>
+        <v>10.549</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-11.38613861386136</v>
+        <v>27.80412731376975</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01138613861386136</v>
+        <v>0.02801068828895231</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2242,54 +2242,54 @@
         </is>
       </c>
       <c r="T25" s="2" t="n">
-        <v>45308.375</v>
+        <v>45064.625</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>45309.25</v>
+        <v>45064.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>97.76640243138237</v>
+        <v>105.9322033898305</v>
       </c>
       <c r="D26" t="n">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="E26" t="n">
-        <v>10.112</v>
+        <v>9.44</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="H26" t="n">
-        <v>9.756</v>
+        <v>9.265000000000001</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.80483926557213</v>
+        <v>-18.5381355932202</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03520569620253165</v>
+        <v>-0.0185381355932202</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2302,56 +2302,56 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T26" s="2" t="n">
-        <v>45309.375</v>
+        <v>45127.33333333334</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>45309.70833333334</v>
+        <v>45127.58333333334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>72.83321194464676</v>
+        <v>104.0014691540511</v>
       </c>
       <c r="D27" t="n">
-        <v>326</v>
+        <v>481</v>
       </c>
       <c r="E27" t="n">
-        <v>13.73</v>
+        <v>9.436999999999999</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>327</v>
+        <v>526</v>
       </c>
       <c r="H27" t="n">
-        <v>13.477</v>
+        <v>9.323</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-18.42680262199565</v>
+        <v>-11.85616748356165</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.01842680262199565</v>
+        <v>-0.01208011020451397</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2373,10 +2373,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2384,54 +2384,54 @@
         </is>
       </c>
       <c r="T27" s="2" t="n">
-        <v>45365.58333333334</v>
+        <v>45128.04166666666</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>45365.625</v>
+        <v>45129.91666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>71.1388025350054</v>
+        <v>105.0607538111624</v>
       </c>
       <c r="D28" t="n">
-        <v>328</v>
+        <v>549</v>
       </c>
       <c r="E28" t="n">
-        <v>13.798</v>
+        <v>9.228999999999999</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>330</v>
+        <v>555</v>
       </c>
       <c r="H28" t="n">
-        <v>13.34</v>
+        <v>9.141</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-32.58157156103243</v>
+        <v>9.245346335382237</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.03319321640817506</v>
+        <v>0.009535160905840227</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2444,56 +2444,56 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T28" s="2" t="n">
-        <v>45365.66666666666</v>
+        <v>45130.875</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>45365.75</v>
+        <v>45131.125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>71.1388025350054</v>
+        <v>99.00990099009901</v>
       </c>
       <c r="D29" t="n">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="E29" t="n">
-        <v>13.34</v>
+        <v>10.1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="H29" t="n">
-        <v>13.568</v>
+        <v>10.215</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-16.21964697798114</v>
+        <v>-11.38613861386136</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01709145427286347</v>
+        <v>-0.01138613861386136</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>2024</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -2526,54 +2526,54 @@
         </is>
       </c>
       <c r="T29" s="2" t="n">
-        <v>45365.75</v>
+        <v>45308.375</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>45365.875</v>
+        <v>45309.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>80.35595958295924</v>
+        <v>97.76640243138237</v>
       </c>
       <c r="D30" t="n">
-        <v>573</v>
+        <v>417</v>
       </c>
       <c r="E30" t="n">
-        <v>11.608</v>
+        <v>10.112</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>590</v>
+        <v>425</v>
       </c>
       <c r="H30" t="n">
-        <v>12.109</v>
+        <v>9.756</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>40.25833575106265</v>
+        <v>34.80483926557213</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04315988973121992</v>
+        <v>0.03520569620253165</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2589,18 +2589,18 @@
         <v>2024</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T30" s="2" t="n">
-        <v>45375.875</v>
+        <v>45309.375</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>45376.58333333334</v>
+        <v>45309.70833333334</v>
       </c>
     </row>
     <row r="31">
@@ -2611,31 +2611,31 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>117.9662616491683</v>
+        <v>72.83321194464676</v>
       </c>
       <c r="D31" t="n">
-        <v>603</v>
+        <v>326</v>
       </c>
       <c r="E31" t="n">
-        <v>8.477</v>
+        <v>13.73</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>609</v>
+        <v>327</v>
       </c>
       <c r="H31" t="n">
-        <v>8.379</v>
+        <v>13.477</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-11.56069364161863</v>
+        <v>-18.42680262199565</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.01156069364161863</v>
+        <v>-0.01842680262199565</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>2024</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="T31" s="2" t="n">
-        <v>45438.125</v>
+        <v>45365.58333333334</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>45438.375</v>
+        <v>45365.625</v>
       </c>
     </row>
     <row r="32">
@@ -2682,31 +2682,31 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>116.4376612508401</v>
+        <v>71.1388025350054</v>
       </c>
       <c r="D32" t="n">
-        <v>625</v>
+        <v>328</v>
       </c>
       <c r="E32" t="n">
-        <v>8.489000000000001</v>
+        <v>13.798</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>639</v>
+        <v>330</v>
       </c>
       <c r="H32" t="n">
-        <v>8.66</v>
+        <v>13.34</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>19.91084007389361</v>
+        <v>-32.58157156103243</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02014371539639529</v>
+        <v>-0.03319321640817506</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>2024</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="T32" s="2" t="n">
-        <v>45439.04166666666</v>
+        <v>45365.66666666666</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>45439.625</v>
+        <v>45365.75</v>
       </c>
     </row>
     <row r="33">
@@ -2753,34 +2753,34 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>117.921897606394</v>
+        <v>71.1388025350054</v>
       </c>
       <c r="D33" t="n">
-        <v>653</v>
+        <v>330</v>
       </c>
       <c r="E33" t="n">
-        <v>8.551</v>
+        <v>13.34</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>655</v>
+        <v>333</v>
       </c>
       <c r="H33" t="n">
-        <v>8.483000000000001</v>
+        <v>13.568</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-8.018689037234708</v>
+        <v>-16.21964697798114</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.007952286282306081</v>
+        <v>-0.01709145427286347</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -2802,18 +2802,18 @@
         <v>2024</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T33" s="2" t="n">
-        <v>45440.20833333334</v>
+        <v>45365.75</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>45440.29166666666</v>
+        <v>45365.875</v>
       </c>
     </row>
     <row r="34">
@@ -2824,31 +2824,31 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>115.7523093491137</v>
+        <v>80.35595958295924</v>
       </c>
       <c r="D34" t="n">
-        <v>657</v>
+        <v>573</v>
       </c>
       <c r="E34" t="n">
-        <v>8.641999999999999</v>
+        <v>11.608</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>667</v>
+        <v>590</v>
       </c>
       <c r="H34" t="n">
-        <v>8.819000000000001</v>
+        <v>12.109</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.48815875479329</v>
+        <v>40.25833575106265</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02048137005322859</v>
+        <v>0.04315988973121992</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>2024</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="T34" s="2" t="n">
-        <v>45440.375</v>
+        <v>45375.875</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>45440.79166666666</v>
+        <v>45376.58333333334</v>
       </c>
     </row>
     <row r="35">
@@ -2895,34 +2895,34 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>146.9723691945914</v>
+        <v>117.9662616491683</v>
       </c>
       <c r="D35" t="n">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="E35" t="n">
-        <v>6.804</v>
+        <v>8.477</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="H35" t="n">
-        <v>6.878</v>
+        <v>8.379</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-10.87595532039973</v>
+        <v>-11.56069364161863</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01087595532039973</v>
+        <v>-0.01156069364161863</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -2944,53 +2944,53 @@
         <v>2024</v>
       </c>
       <c r="R35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T35" s="2" t="n">
-        <v>45469.66666666666</v>
+        <v>45438.125</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>45470.54166666666</v>
+        <v>45438.375</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>166.4447403462051</v>
+        <v>116.4376612508401</v>
       </c>
       <c r="D36" t="n">
-        <v>229</v>
+        <v>625</v>
       </c>
       <c r="E36" t="n">
-        <v>6.008</v>
+        <v>8.489000000000001</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>359</v>
+        <v>639</v>
       </c>
       <c r="H36" t="n">
-        <v>6.497</v>
+        <v>8.66</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>81.39147802929438</v>
+        <v>19.91084007389361</v>
       </c>
       <c r="K36" t="n">
-        <v>0.08139147802929438</v>
+        <v>0.02014371539639529</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>2024</v>
       </c>
       <c r="R36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3023,45 +3023,45 @@
         </is>
       </c>
       <c r="T36" s="2" t="n">
-        <v>45483.54166666666</v>
+        <v>45439.04166666666</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>45488.95833333334</v>
+        <v>45439.625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>224.7191011235955</v>
+        <v>117.921897606394</v>
       </c>
       <c r="D37" t="n">
-        <v>357</v>
+        <v>653</v>
       </c>
       <c r="E37" t="n">
-        <v>4.45</v>
+        <v>8.551</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>389</v>
+        <v>655</v>
       </c>
       <c r="H37" t="n">
-        <v>4.376</v>
+        <v>8.483000000000001</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-16.62921348314603</v>
+        <v>-8.018689037234708</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.01662921348314603</v>
+        <v>-0.007952286282306081</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>2024</v>
       </c>
       <c r="R37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3094,45 +3094,45 @@
         </is>
       </c>
       <c r="T37" s="2" t="n">
-        <v>45580.875</v>
+        <v>45440.20833333334</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>45582.20833333334</v>
+        <v>45440.29166666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>160.7458607940846</v>
+        <v>115.7523093491137</v>
       </c>
       <c r="D38" t="n">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="E38" t="n">
-        <v>6.221</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>602</v>
+        <v>667</v>
       </c>
       <c r="H38" t="n">
-        <v>6.1</v>
+        <v>8.819000000000001</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-19.45024915608428</v>
+        <v>20.48815875479329</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.01945024915608428</v>
+        <v>0.02048137005322859</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3154,10 +3154,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3165,54 +3165,54 @@
         </is>
       </c>
       <c r="T38" s="2" t="n">
-        <v>45682.04166666666</v>
+        <v>45440.375</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>45683.08333333334</v>
+        <v>45440.79166666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>157.6700033516507</v>
+        <v>146.9723691945914</v>
       </c>
       <c r="D39" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E39" t="n">
-        <v>6.219</v>
+        <v>6.804</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="H39" t="n">
-        <v>6.091</v>
+        <v>6.878</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-20.18176042901132</v>
+        <v>-10.87595532039973</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.02058208715227531</v>
+        <v>-0.01087595532039973</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3225,21 +3225,21 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T39" s="2" t="n">
-        <v>45683.625</v>
+        <v>45469.66666666666</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>45683.95833333334</v>
+        <v>45470.54166666666</v>
       </c>
     </row>
     <row r="40">
@@ -3250,34 +3250,34 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>206.9108214359611</v>
+        <v>165.9475605708596</v>
       </c>
       <c r="D40" t="n">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="E40" t="n">
-        <v>4.833</v>
+        <v>6.026</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="H40" t="n">
-        <v>4.598</v>
+        <v>6.497</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>48.62404303745097</v>
+        <v>78.16130102887496</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04862404303745097</v>
+        <v>0.07816130102887496</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -3296,21 +3296,21 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T40" s="2" t="n">
-        <v>45706.08333333334</v>
+        <v>45483.16666666666</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>45706.25</v>
+        <v>45488.95833333334</v>
       </c>
     </row>
     <row r="41">
@@ -3321,34 +3321,34 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>208.2465639316951</v>
+        <v>224.7191011235955</v>
       </c>
       <c r="D41" t="n">
-        <v>647</v>
+        <v>357</v>
       </c>
       <c r="E41" t="n">
-        <v>4.802</v>
+        <v>4.45</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>652</v>
+        <v>389</v>
       </c>
       <c r="H41" t="n">
-        <v>4.652</v>
+        <v>4.376</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.23698458975423</v>
+        <v>-16.62921348314603</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03123698458975423</v>
+        <v>-0.01662921348314603</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
@@ -3367,21 +3367,21 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T41" s="2" t="n">
-        <v>45743.95833333334</v>
+        <v>45580.875</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45744.16666666666</v>
+        <v>45582.20833333334</v>
       </c>
     </row>
     <row r="42">
@@ -3392,31 +3392,31 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>236.9668246445498</v>
+        <v>151.1258878645912</v>
       </c>
       <c r="D42" t="n">
-        <v>315</v>
+        <v>637</v>
       </c>
       <c r="E42" t="n">
-        <v>4.22</v>
+        <v>6.617</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>353</v>
+        <v>709</v>
       </c>
       <c r="H42" t="n">
-        <v>4.047</v>
+        <v>6.225</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>40.99526066350711</v>
+        <v>59.24134804291975</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04099526066350711</v>
+        <v>0.05924134804291976</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -3438,10 +3438,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -3449,54 +3449,54 @@
         </is>
       </c>
       <c r="T42" s="2" t="n">
-        <v>45761.125</v>
+        <v>45653.54166666666</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>45762.70833333334</v>
+        <v>45656.54166666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>252.5461573662074</v>
+        <v>160.7458607940846</v>
       </c>
       <c r="D43" t="n">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="E43" t="n">
-        <v>4.122</v>
+        <v>6.221</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>502</v>
+        <v>602</v>
       </c>
       <c r="H43" t="n">
-        <v>4.05</v>
+        <v>6.1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.18332333036687</v>
+        <v>-19.45024915608428</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01746724890829689</v>
+        <v>-0.01945024915608428</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3512,53 +3512,53 @@
         <v>2025</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T43" s="2" t="n">
-        <v>45768.83333333334</v>
+        <v>45682.04166666666</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>45768.91666666666</v>
+        <v>45683.08333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>218.1500872600349</v>
+        <v>157.6700033516507</v>
       </c>
       <c r="D44" t="n">
-        <v>681</v>
+        <v>615</v>
       </c>
       <c r="E44" t="n">
-        <v>4.584</v>
+        <v>6.219</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>689</v>
+        <v>623</v>
       </c>
       <c r="H44" t="n">
-        <v>4.476</v>
+        <v>6.091</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-23.56020942408372</v>
+        <v>-20.18176042901132</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.02356020942408372</v>
+        <v>-0.02058208715227531</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>2025</v>
       </c>
       <c r="R44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -3591,54 +3591,54 @@
         </is>
       </c>
       <c r="T44" s="2" t="n">
-        <v>45898.375</v>
+        <v>45683.625</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>45898.70833333334</v>
+        <v>45683.95833333334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>214.507862604551</v>
+        <v>160.1414024370359</v>
       </c>
       <c r="D45" t="n">
-        <v>703</v>
+        <v>624</v>
       </c>
       <c r="E45" t="n">
-        <v>4.552</v>
+        <v>5.997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>705</v>
+        <v>630</v>
       </c>
       <c r="H45" t="n">
-        <v>4.508</v>
+        <v>5.725</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-9.438345954600209</v>
+        <v>43.55846146287388</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0096660808435852</v>
+        <v>0.04535601133900295</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3654,18 +3654,18 @@
         <v>2025</v>
       </c>
       <c r="R45" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T45" s="2" t="n">
-        <v>45899.29166666666</v>
+        <v>45684</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>45899.375</v>
+        <v>45684.25</v>
       </c>
     </row>
     <row r="46">
@@ -3676,31 +3676,31 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>316.3555836760519</v>
+        <v>206.9108214359611</v>
       </c>
       <c r="D46" t="n">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="E46" t="n">
-        <v>3.161</v>
+        <v>4.833</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="H46" t="n">
-        <v>3.254</v>
+        <v>4.598</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-29.42106928187286</v>
+        <v>48.62404303745097</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.02942106928187286</v>
+        <v>0.04862404303745097</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>2025</v>
       </c>
       <c r="R46" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -3733,45 +3733,45 @@
         </is>
       </c>
       <c r="T46" s="2" t="n">
-        <v>45949.16666666666</v>
+        <v>45706.08333333334</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45949.54166666666</v>
+        <v>45706.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>306.4663500846628</v>
+        <v>208.2465639316951</v>
       </c>
       <c r="D47" t="n">
-        <v>552</v>
+        <v>647</v>
       </c>
       <c r="E47" t="n">
-        <v>3.167</v>
+        <v>4.802</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="H47" t="n">
-        <v>3.209</v>
+        <v>4.652</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-12.87158670355598</v>
+        <v>31.23698458975423</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.01326176191979806</v>
+        <v>0.03123698458975423</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>2025</v>
       </c>
       <c r="R47" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -3804,45 +3804,45 @@
         </is>
       </c>
       <c r="T47" s="2" t="n">
-        <v>45954</v>
+        <v>45743.95833333334</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45954.83333333334</v>
+        <v>45744.16666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>302.7844906780181</v>
+        <v>236.9668246445498</v>
       </c>
       <c r="D48" t="n">
-        <v>646</v>
+        <v>315</v>
       </c>
       <c r="E48" t="n">
-        <v>3.163</v>
+        <v>4.22</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>654</v>
+        <v>353</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>4.047</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-11.20302615508672</v>
+        <v>40.99526066350711</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.01169775529560549</v>
+        <v>0.04099526066350711</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>2025</v>
       </c>
       <c r="R48" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -3875,45 +3875,45 @@
         </is>
       </c>
       <c r="T48" s="2" t="n">
-        <v>45957.91666666666</v>
+        <v>45761.125</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>45958.25</v>
+        <v>45762.70833333334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>298.3935428308589</v>
+        <v>252.5461573662074</v>
       </c>
       <c r="D49" t="n">
-        <v>658</v>
+        <v>500</v>
       </c>
       <c r="E49" t="n">
-        <v>3.172</v>
+        <v>4.122</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>661</v>
+        <v>502</v>
       </c>
       <c r="H49" t="n">
-        <v>3.199</v>
+        <v>4.05</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-8.056625656433198</v>
+        <v>18.18332333036687</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.008511979823455241</v>
+        <v>0.01746724890829689</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>2025</v>
       </c>
       <c r="R49" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -3946,54 +3946,54 @@
         </is>
       </c>
       <c r="T49" s="2" t="n">
-        <v>45958.41666666666</v>
+        <v>45768.83333333334</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45958.54166666666</v>
+        <v>45768.91666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>296.5079596218171</v>
+        <v>218.1500872600349</v>
       </c>
       <c r="D50" t="n">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="E50" t="n">
-        <v>3.165</v>
+        <v>4.584</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="H50" t="n">
-        <v>3.202</v>
+        <v>4.476</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-10.97079450600711</v>
+        <v>-23.56020942408372</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.01169036334913099</v>
+        <v>-0.02356020942408372</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4009,62 +4009,62 @@
         <v>2025</v>
       </c>
       <c r="R50" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T50" s="2" t="n">
-        <v>45958.625</v>
+        <v>45898.375</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45958.70833333334</v>
+        <v>45898.70833333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>295.4689065616579</v>
+        <v>214.507862604551</v>
       </c>
       <c r="D51" t="n">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="E51" t="n">
-        <v>3.139</v>
+        <v>4.552</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="H51" t="n">
-        <v>3.066</v>
+        <v>4.508</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>21.56923017900101</v>
+        <v>-9.438345954600209</v>
       </c>
       <c r="K51" t="n">
-        <v>0.02325581395348836</v>
+        <v>-0.0096660808435852</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4080,18 +4080,18 @@
         <v>2025</v>
       </c>
       <c r="R51" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="T51" s="2" t="n">
-        <v>45958.79166666666</v>
+        <v>45899.29166666666</v>
       </c>
       <c r="U51" s="2" t="n">
-        <v>45958.83333333334</v>
+        <v>45899.375</v>
       </c>
     </row>
     <row r="52">
@@ -4102,34 +4102,34 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>503.5246727089627</v>
+        <v>316.3555836760519</v>
       </c>
       <c r="D52" t="n">
-        <v>552</v>
+        <v>436</v>
       </c>
       <c r="E52" t="n">
-        <v>1.986</v>
+        <v>3.161</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>554</v>
+        <v>445</v>
       </c>
       <c r="H52" t="n">
-        <v>1.946</v>
+        <v>3.254</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-20.14098690835851</v>
+        <v>-29.42106928187286</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.02014098690835851</v>
+        <v>-0.02942106928187286</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -4151,18 +4151,18 @@
         <v>2025</v>
       </c>
       <c r="R52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="T52" s="2" t="n">
-        <v>46015</v>
+        <v>45949.16666666666</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>46015.08333333334</v>
+        <v>45949.54166666666</v>
       </c>
     </row>
     <row r="53">
@@ -4173,31 +4173,31 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>506.1255232911371</v>
+        <v>306.4663500846628</v>
       </c>
       <c r="D53" t="n">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E53" t="n">
-        <v>1.936</v>
+        <v>3.167</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H53" t="n">
-        <v>1.973</v>
+        <v>3.209</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-18.72664436177217</v>
+        <v>-12.87158670355598</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.01911157024793399</v>
+        <v>-0.01326176191979806</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -4222,7 +4222,7 @@
         <v>2025</v>
       </c>
       <c r="R53" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -4230,10 +4230,10 @@
         </is>
       </c>
       <c r="T53" s="2" t="n">
-        <v>46015.16666666666</v>
+        <v>45954</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>46015.875</v>
+        <v>45954.83333333334</v>
       </c>
     </row>
     <row r="54">
@@ -4244,34 +4244,34 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>487.1426095944598</v>
+        <v>302.7844906780181</v>
       </c>
       <c r="D54" t="n">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="E54" t="n">
-        <v>1.973</v>
+        <v>3.163</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>602</v>
+        <v>654</v>
       </c>
       <c r="H54" t="n">
-        <v>2.035</v>
+        <v>3.2</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>30.20284179485645</v>
+        <v>-11.20302615508672</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03142422706538261</v>
+        <v>-0.01169775529560549</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -4293,17 +4293,443 @@
         <v>2025</v>
       </c>
       <c r="R54" t="n">
+        <v>10</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="n">
+        <v>45957.91666666666</v>
+      </c>
+      <c r="U54" s="2" t="n">
+        <v>45958.25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>298.3935428308589</v>
+      </c>
+      <c r="D55" t="n">
+        <v>658</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>661</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.199</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-8.056625656433198</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.008511979823455241</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>ATOM/USDT</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="R55" t="n">
+        <v>10</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>45958.41666666666</v>
+      </c>
+      <c r="U55" s="2" t="n">
+        <v>45958.54166666666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>296.5079596218171</v>
+      </c>
+      <c r="D56" t="n">
+        <v>663</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>665</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-10.97079450600711</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.01169036334913099</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>ATOM/USDT</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="R56" t="n">
+        <v>10</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="n">
+        <v>45958.625</v>
+      </c>
+      <c r="U56" s="2" t="n">
+        <v>45958.70833333334</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>295.4689065616579</v>
+      </c>
+      <c r="D57" t="n">
+        <v>667</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>668</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>21.56923017900101</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.02325581395348836</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>ATOM/USDT</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="R57" t="n">
+        <v>10</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="n">
+        <v>45958.79166666666</v>
+      </c>
+      <c r="U57" s="2" t="n">
+        <v>45958.83333333334</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>503.5246727089627</v>
+      </c>
+      <c r="D58" t="n">
+        <v>552</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>554</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.946</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-20.14098690835851</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.02014098690835851</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>ATOM/USDT</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="R58" t="n">
         <v>12</v>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>SHORT</t>
         </is>
       </c>
-      <c r="T54" s="2" t="n">
+      <c r="T58" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="U58" s="2" t="n">
+        <v>46015.08333333334</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>506.1255232911371</v>
+      </c>
+      <c r="D59" t="n">
+        <v>556</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>573</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.973</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-18.72664436177217</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.01911157024793399</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>ATOM/USDT</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="R59" t="n">
+        <v>12</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="T59" s="2" t="n">
+        <v>46015.16666666666</v>
+      </c>
+      <c r="U59" s="2" t="n">
         <v>46015.875</v>
       </c>
-      <c r="U54" s="2" t="n">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>487.1426095944598</v>
+      </c>
+      <c r="D60" t="n">
+        <v>573</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.973</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>602</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30.20284179485645</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.03142422706538261</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>ATOM/USDT</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="R60" t="n">
+        <v>12</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="n">
+        <v>46015.875</v>
+      </c>
+      <c r="U60" s="2" t="n">
         <v>46017.08333333334</v>
       </c>
     </row>
